--- a/SEMESTER 1/METODE KOMPUTASI/28-09-2024 W3.xlsx
+++ b/SEMESTER 1/METODE KOMPUTASI/28-09-2024 W3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\S2-Pascasarjana\SEMESTER 1\METODE KOMPUTASI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B1463D-F775-4D1D-9163-81BB09AD381B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBC6C6C-B184-4A3C-B7B6-85F637208AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="2" activeTab="2" xr2:uid="{361E69E7-F38E-4E18-B0A8-9312D05E102E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{361E69E7-F38E-4E18-B0A8-9312D05E102E}"/>
   </bookViews>
   <sheets>
     <sheet name="Linear Reggresion" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="37">
   <si>
     <t>i</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>logx logy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Err = </t>
   </si>
 </sst>
 </file>
@@ -1097,11 +1100,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{604FED88-6DA4-4367-B8B6-8D2F509C53A2}">
-  <dimension ref="A4:J49"/>
+  <dimension ref="A4:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,7 +1470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>8</v>
       </c>
@@ -1488,7 +1491,7 @@
         <v>5215</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>360</v>
       </c>
@@ -1509,7 +1512,16 @@
         <v>316000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22">
+        <f xml:space="preserve"> (I14-J14)/I14</f>
+        <v>0.99175388554540089</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>16</v>
       </c>
@@ -1517,7 +1529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" cm="1">
         <f t="array" ref="B25:C26">MINVERSE(B18:C19)</f>
         <v>0.60714285714285687</v>
@@ -1533,7 +1545,7 @@
         <v>-219.46428571428623</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>14</v>
       </c>
@@ -1550,12 +1562,12 @@
         <v>19.363095238095241</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>23</v>
       </c>
@@ -1564,7 +1576,7 @@
         <v>651.875</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>21</v>
       </c>
@@ -1606,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A4BB4E-5603-4B0A-AAA8-E2454FF05FA3}">
   <dimension ref="A4:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="88" workbookViewId="0">
-      <selection activeCell="C30" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2123,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8076D9-3E71-46BE-8F5F-DBE5A2402919}">
   <dimension ref="A4:L49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:H11"/>
+    <sheetView topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2215,19 +2227,19 @@
         <v>71.599999999999994</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E11" si="0">LOG(C6,10)</f>
+        <f t="shared" ref="E6:E9" si="0">LOG(C6,10)</f>
         <v>0.30102999566398114</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F11" si="1">E6^2</f>
+        <f t="shared" ref="F6:F9" si="1">E6^2</f>
         <v>9.0619058289456503E-2</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G11" si="2">LOG(D6,10)</f>
+        <f t="shared" ref="G6:G9" si="2">LOG(D6,10)</f>
         <v>1.8549130223078554</v>
       </c>
       <c r="H6">
-        <f t="shared" ref="H6:H11" si="3">E6*G6</f>
+        <f t="shared" ref="H6:H9" si="3">E6*G6</f>
         <v>0.55838445906239587</v>
       </c>
     </row>
